--- a/正则规则-示例.xlsx
+++ b/正则规则-示例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>命中问题</t>
   </si>
@@ -27,16 +27,40 @@
     <t>规则2</t>
   </si>
   <si>
-    <t>年份</t>
-  </si>
-  <si>
-    <t>\d{4}</t>
-  </si>
-  <si>
-    <t>手机号</t>
-  </si>
-  <si>
-    <t>\d{11}</t>
+    <t>排除1</t>
+  </si>
+  <si>
+    <t>排除2</t>
+  </si>
+  <si>
+    <t>外观</t>
+  </si>
+  <si>
+    <t>漂亮|美丽</t>
+  </si>
+  <si>
+    <t>宽敞</t>
+  </si>
+  <si>
+    <t>酷</t>
+  </si>
+  <si>
+    <t>恶心</t>
+  </si>
+  <si>
+    <t>空间</t>
+  </si>
+  <si>
+    <t>宽敞|容积</t>
+  </si>
+  <si>
+    <t>宽松</t>
+  </si>
+  <si>
+    <t>大小</t>
+  </si>
+  <si>
+    <t>中间</t>
   </si>
 </sst>
 </file>
@@ -1004,18 +1028,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="E13:F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1025,27 +1050,45 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>2077</v>
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>12345678910</v>
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1077,7 +1120,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
